--- a/прог1/dassein.xlsx
+++ b/прог1/dassein.xlsx
@@ -341,7 +341,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -354,7 +354,7 @@
         <v>0.4</v>
       </c>
       <c r="C1">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -365,7 +365,7 @@
         <v>1.5</v>
       </c>
       <c r="C2">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -376,7 +376,7 @@
         <v>2.9</v>
       </c>
       <c r="C3">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -387,7 +387,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -398,7 +398,7 @@
         <v>5.2</v>
       </c>
       <c r="C5">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -409,7 +409,7 @@
         <v>6.3</v>
       </c>
       <c r="C6">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -420,7 +420,7 @@
         <v>7.5</v>
       </c>
       <c r="C7">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -431,7 +431,7 @@
         <v>8.4</v>
       </c>
       <c r="C8">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -442,7 +442,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="C9">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
